--- a/biology/Médecine/Muscle_extenseur_ulnaire_du_carpe/Muscle_extenseur_ulnaire_du_carpe.xlsx
+++ b/biology/Médecine/Muscle_extenseur_ulnaire_du_carpe/Muscle_extenseur_ulnaire_du_carpe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle extenseur ulnaire du carpe (anciennement appelé muscle cubital postérieur) est un muscle fusiforme de l'avant-bras. Il est situé dans la partie superficielle de la loge antébrachiale postérieure. C'est le muscle le plus superficiel et le plus médial de la loge.
 Il est constitué de deux chefs : un chef huméral et un chef ulnaire.
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chef huméral du muscle extenseur ulnaire du carpe
-Le chef huméral du muscle extenseur ulnaire du carpe se fixe par l'intermédiaire du tendon commun des extenseurs sur l'épicondyle latéral de l'humérus.
-Chef ulnaire du muscle extenseur ulnaire du carpe
-Le chef ulnaire du muscle extenseur ulnaire du carpe se fixe sur le bord postérieur de l'ulna et sur les septums de séparation qui le séparent des muscles extenseur du petit doigt et supinateur).
+          <t>Chef huméral du muscle extenseur ulnaire du carpe</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chef huméral du muscle extenseur ulnaire du carpe se fixe par l'intermédiaire du tendon commun des extenseurs sur l'épicondyle latéral de l'humérus.
 </t>
         </is>
       </c>
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Origine</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les deux chefs fusionnent et se dirigent obliquement en bas et en dedans et médialement du muscle extenseur du petit doigt.
+          <t>Chef ulnaire du muscle extenseur ulnaire du carpe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chef ulnaire du muscle extenseur ulnaire du carpe se fixe sur le bord postérieur de l'ulna et sur les septums de séparation qui le séparent des muscles extenseur du petit doigt et supinateur).
 </t>
         </is>
       </c>
@@ -574,12 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Terminaison</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle extenseur ulnaire du carpe se termine par un tendon s'insérant sur le tubercule postéro-médial de la base du cinquième métacarpien.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux chefs fusionnent et se dirigent obliquement en bas et en dedans et médialement du muscle extenseur du petit doigt.
 </t>
         </is>
       </c>
@@ -605,12 +628,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Innervation</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle extenseur ulnaire du carpe est innervé par le nerf du muscle extenseur ulnaire du carpe issu du rameau profond du nerf radial.
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle extenseur ulnaire du carpe se termine par un tendon s'insérant sur le tubercule postéro-médial de la base du cinquième métacarpien.
 </t>
         </is>
       </c>
@@ -636,10 +661,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle extenseur ulnaire du carpe est innervé par le nerf du muscle extenseur ulnaire du carpe issu du rameau profond du nerf radial.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muscle_extenseur_ulnaire_du_carpe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_extenseur_ulnaire_du_carpe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle extenseur ulnaire du carpe est extenseur et adducteur de la main sur l'avant bras.
 </t>
